--- a/src/Ebay_TestData.xlsx
+++ b/src/Ebay_TestData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>S.No</t>
   </si>
@@ -45,13 +45,16 @@
     <t>nexus 5</t>
   </si>
   <si>
-    <t>Valid Data</t>
-  </si>
-  <si>
     <t>Qty</t>
   </si>
   <si>
     <t>iTems</t>
+  </si>
+  <si>
+    <t>Valid Login</t>
+  </si>
+  <si>
+    <t>samsung</t>
   </si>
 </sst>
 </file>
@@ -114,7 +117,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -420,7 +423,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,7 +447,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -453,8 +456,8 @@
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -510,7 +513,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,10 +523,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -531,7 +534,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
